--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H2">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I2">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J2">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N2">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q2">
-        <v>154.8208159801456</v>
+        <v>84.622061467706</v>
       </c>
       <c r="R2">
-        <v>1393.38734382131</v>
+        <v>761.598553209354</v>
       </c>
       <c r="S2">
-        <v>0.03439442923034133</v>
+        <v>0.01778495497202747</v>
       </c>
       <c r="T2">
-        <v>0.03439442923034133</v>
+        <v>0.01778495497202747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H3">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I3">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J3">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P3">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q3">
-        <v>1654.960579446287</v>
+        <v>1417.231740718187</v>
       </c>
       <c r="R3">
-        <v>14894.64521501658</v>
+        <v>12755.08566646369</v>
       </c>
       <c r="S3">
-        <v>0.3676600214797321</v>
+        <v>0.2978585283368465</v>
       </c>
       <c r="T3">
-        <v>0.3676600214797322</v>
+        <v>0.2978585283368465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H4">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I4">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J4">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N4">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O4">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P4">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q4">
-        <v>859.8728540178578</v>
+        <v>1676.953066349617</v>
       </c>
       <c r="R4">
-        <v>7738.85568616072</v>
+        <v>15092.57759714655</v>
       </c>
       <c r="S4">
-        <v>0.1910262249774058</v>
+        <v>0.3524439638782985</v>
       </c>
       <c r="T4">
-        <v>0.1910262249774058</v>
+        <v>0.3524439638782986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.72517666666667</v>
+        <v>44.29505033333334</v>
       </c>
       <c r="H5">
-        <v>155.17553</v>
+        <v>132.885151</v>
       </c>
       <c r="I5">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761968</v>
       </c>
       <c r="J5">
-        <v>0.9871016109990332</v>
+        <v>0.9830698162761969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N5">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q5">
-        <v>1773.619858892176</v>
+        <v>1498.708174421455</v>
       </c>
       <c r="R5">
-        <v>15962.57873002958</v>
+        <v>13488.3735697931</v>
       </c>
       <c r="S5">
-        <v>0.3940209353115537</v>
+        <v>0.3149823690890243</v>
       </c>
       <c r="T5">
-        <v>0.3940209353115537</v>
+        <v>0.3149823690890243</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I6">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J6">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N6">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q6">
-        <v>0.9189874837456667</v>
+        <v>0.5865575489579999</v>
       </c>
       <c r="R6">
-        <v>8.270887353711002</v>
+        <v>5.279017940622</v>
       </c>
       <c r="S6">
-        <v>0.0002041589160550171</v>
+        <v>0.0001232763586207589</v>
       </c>
       <c r="T6">
-        <v>0.0002041589160550171</v>
+        <v>0.0001232763586207589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I7">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J7">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P7">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q7">
         <v>9.823537287122001</v>
@@ -883,10 +883,10 @@
         <v>88.41183558409801</v>
       </c>
       <c r="S7">
-        <v>0.002182361305064213</v>
+        <v>0.002064605438431349</v>
       </c>
       <c r="T7">
-        <v>0.002182361305064213</v>
+        <v>0.002064605438431349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I8">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J8">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N8">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O8">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P8">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q8">
-        <v>5.104044862781333</v>
+        <v>11.623794826731</v>
       </c>
       <c r="R8">
-        <v>45.936403765032</v>
+        <v>104.614153440579</v>
       </c>
       <c r="S8">
-        <v>0.001133896037881189</v>
+        <v>0.002442964210655513</v>
       </c>
       <c r="T8">
-        <v>0.001133896037881189</v>
+        <v>0.002442964210655513</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.9210930000000001</v>
       </c>
       <c r="I9">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655052</v>
       </c>
       <c r="J9">
-        <v>0.005859251031267188</v>
+        <v>0.006814145293655053</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N9">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q9">
-        <v>10.52787663548867</v>
+        <v>10.38829092727133</v>
       </c>
       <c r="R9">
-        <v>94.750889719398</v>
+        <v>93.49461834544201</v>
       </c>
       <c r="S9">
-        <v>0.002338834772266768</v>
+        <v>0.002183299285947432</v>
       </c>
       <c r="T9">
-        <v>0.002338834772266768</v>
+        <v>0.002183299285947432</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H10">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I10">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J10">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N10">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q10">
-        <v>0.918289083867889</v>
+        <v>0.704051439988</v>
       </c>
       <c r="R10">
-        <v>8.264601754811002</v>
+        <v>6.336462959892001</v>
       </c>
       <c r="S10">
-        <v>0.0002040037620789924</v>
+        <v>0.000147969961272525</v>
       </c>
       <c r="T10">
-        <v>0.0002040037620789924</v>
+        <v>0.000147969961272525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H11">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I11">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J11">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>95.985786</v>
       </c>
       <c r="O11">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P11">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q11">
-        <v>9.816071725988667</v>
+        <v>11.79129922555867</v>
       </c>
       <c r="R11">
-        <v>88.344645533898</v>
+        <v>106.121693030028</v>
       </c>
       <c r="S11">
-        <v>0.00218070278316301</v>
+        <v>0.002478168484093161</v>
       </c>
       <c r="T11">
-        <v>0.00218070278316301</v>
+        <v>0.002478168484093161</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H12">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I12">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J12">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N12">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O12">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P12">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q12">
-        <v>5.100165958692444</v>
+        <v>13.952168036066</v>
       </c>
       <c r="R12">
-        <v>45.901493628232</v>
+        <v>125.569512324594</v>
       </c>
       <c r="S12">
-        <v>0.001133034314660497</v>
+        <v>0.002932316655725659</v>
       </c>
       <c r="T12">
-        <v>0.001133034314660498</v>
+        <v>0.002932316655725659</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3067976666666667</v>
+        <v>0.3685326666666667</v>
       </c>
       <c r="H13">
-        <v>0.920393</v>
+        <v>1.105598</v>
       </c>
       <c r="I13">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="J13">
-        <v>0.005854798195644849</v>
+        <v>0.008179093108268589</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N13">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q13">
-        <v>10.51987579991089</v>
+        <v>12.46917919537911</v>
       </c>
       <c r="R13">
-        <v>94.678882199198</v>
+        <v>112.222612758412</v>
       </c>
       <c r="S13">
-        <v>0.002337057335742349</v>
+        <v>0.002620638007177243</v>
       </c>
       <c r="T13">
-        <v>0.002337057335742349</v>
+        <v>0.002620638007177243</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H14">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I14">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J14">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N14">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O14">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P14">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q14">
-        <v>0.1857564086348889</v>
+        <v>0.166731094144</v>
       </c>
       <c r="R14">
-        <v>1.671807677714</v>
+        <v>1.500579847296</v>
       </c>
       <c r="S14">
-        <v>4.126696794889895E-05</v>
+        <v>3.504174857427163E-05</v>
       </c>
       <c r="T14">
-        <v>4.126696794889896E-05</v>
+        <v>3.504174857427163E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H15">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I15">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J15">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>95.985786</v>
       </c>
       <c r="O15">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P15">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q15">
-        <v>1.985647289894666</v>
+        <v>2.792375825962667</v>
       </c>
       <c r="R15">
-        <v>17.870825609052</v>
+        <v>25.131382433664</v>
       </c>
       <c r="S15">
-        <v>0.0004411241780140173</v>
+        <v>0.0005868715257979915</v>
       </c>
       <c r="T15">
-        <v>0.0004411241780140174</v>
+        <v>0.0005868715257979916</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H16">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I16">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J16">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N16">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O16">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P16">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q16">
-        <v>1.031688744396444</v>
+        <v>3.304105510208</v>
       </c>
       <c r="R16">
-        <v>9.285198699567999</v>
+        <v>29.736949591872</v>
       </c>
       <c r="S16">
-        <v>0.0002291962181069616</v>
+        <v>0.0006944213684076081</v>
       </c>
       <c r="T16">
-        <v>0.0002291962181069616</v>
+        <v>0.0006944213684076082</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06206066666666666</v>
+        <v>0.08727466666666667</v>
       </c>
       <c r="H17">
-        <v>0.186182</v>
+        <v>0.261824</v>
       </c>
       <c r="I17">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="J17">
-        <v>0.001184339774054723</v>
+        <v>0.001936945321879485</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N17">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O17">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P17">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q17">
-        <v>2.128016527916889</v>
+        <v>2.952909080561778</v>
       </c>
       <c r="R17">
-        <v>19.152148751252</v>
+        <v>26.576181725056</v>
       </c>
       <c r="S17">
-        <v>0.0004727524099848455</v>
+        <v>0.0006206106790996135</v>
       </c>
       <c r="T17">
-        <v>0.0004727524099848455</v>
+        <v>0.0006206106790996136</v>
       </c>
     </row>
   </sheetData>
